--- a/data/ed_packaging.xlsx
+++ b/data/ed_packaging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_products_pipeline\datadrive\projects\script-products\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GaëlAngoujard\AppData\Local\Temp\fz3temp-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3A5075-8ADB-4511-A1ED-7E57C964BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B90FBC4-B6C1-4D00-A554-C42CBA840F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7710" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="113">
   <si>
     <t>pack_id</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>PCS</t>
+  </si>
+  <si>
+    <t>KAUTABLETTEN</t>
+  </si>
+  <si>
+    <t>TABLETTER</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A559B7F1-104E-42C8-A9E5-A4CE0D51CF56}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1561,11 +1567,17 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
       <c r="I23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
       <c r="I24" t="s">
         <v>44</v>
       </c>
